--- a/medicine/Enfance/John_Craig_(écrivain)/John_Craig_(écrivain).xlsx
+++ b/medicine/Enfance/John_Craig_(écrivain)/John_Craig_(écrivain).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>John_Craig_(%C3%A9crivain)</t>
+          <t>John_Craig_(écrivain)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">John Craig, né le 29 juillet 1921 à Peterborough, en Ontario, et mort dans la même ville le 23 janvier 1982[1], est un scénariste, un romancier et un auteur canadien de roman policier et de littérature d’enfance et de jeunesse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">John Craig, né le 29 juillet 1921 à Peterborough, en Ontario, et mort dans la même ville le 23 janvier 1982, est un scénariste, un romancier et un auteur canadien de roman policier et de littérature d’enfance et de jeunesse.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>John_Craig_(%C3%A9crivain)</t>
+          <t>John_Craig_(écrivain)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d’un journaliste sportif du Peterborough Examiner, il est élevé dans un milieu qui subit les contrecoups de la Grande Dépression. Enfant aventureux, il explore en canot, pendant sa jeunesse, les cours d’eau sauvages des forêts canadiennes.
 Pendant la Seconde Guerre mondiale, il sert dans la Marine Royale canadienne. Démobilisé, il poursuit ses études supérieures à l’Université du Manitoba, puis à l’Université de Toronto, où il obtient un diplôme de maîtrise en Histoire. Il travaille ensuite dans le milieu des affaires de Toronto et commence à publier de façon occasionnelle des ouvrages de littérature d’enfance et de jeunesse concernant souvent la lutte contre le racisme.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>John_Craig_(%C3%A9crivain)</t>
+          <t>John_Craig_(écrivain)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,32 +563,218 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Romans policiers
-If You Want to See Your Wife Again... (1971) Publié en français sous le titre La Malle et la Belle, Paris, Gallimard, Série noire no 1533, 1972 ; réédition, Paris, Gallimard, Carré noir no 543, 1985 Publié en français dans une autre traduction sous le titre On a volé sa femme, Paris, Librairie des Champs-Élysées, Le Masque no 1569, 1979
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Romans policiers</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>If You Want to See Your Wife Again... (1971) Publié en français sous le titre La Malle et la Belle, Paris, Gallimard, Série noire no 1533, 1972 ; réédition, Paris, Gallimard, Carré noir no 543, 1985 Publié en français dans une autre traduction sous le titre On a volé sa femme, Paris, Librairie des Champs-Élysées, Le Masque no 1569, 1979
 In Concil Rooms Apart: a Novel of Suspense (1971)
-Close Doesn’t Count (1975) Publié en français dans une autre traduction sous le titre Ils n’étaient pas ensemble, Paris, Librairie des Champs-Élysées, Le Masque no 1545, 1978
-Autres romans non-policiers
-By the Sound of Her Whistle (1966), ouvrage romancé sur les bateaux à vapeur
+Close Doesn’t Count (1975) Publié en français dans une autre traduction sous le titre Ils n’étaient pas ensemble, Paris, Librairie des Champs-Élysées, Le Masque no 1545, 1978</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>John_Craig_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Craig_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Autres romans non-policiers</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>By the Sound of Her Whistle (1966), ouvrage romancé sur les bateaux à vapeur
 The Pro ou Power Play (1968)
 All G.O.D.’s Children (1975)
 The Clearing (1975)
 The Wormburners (1975)
 Chappie and Me: an Autobiographical Novel (1979)
-The Last Canoe (1979), roman historique sur les Ojibway
-Romans de littérature d’enfance et de jeunesse
-Wagons West (1956), roman jeunesse sur la vie des pionniers de l’Ouest
+The Last Canoe (1979), roman historique sur les Ojibway</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>John_Craig_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Craig_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Romans de littérature d’enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Wagons West (1956), roman jeunesse sur la vie des pionniers de l’Ouest
 The Long Return (1959)
 No Word for Good-bye (1969), roman sur une amitié entre un jeune indien Ojibway et un enfant blanc
 Zach ou Who Wants To Be Alone (1972), roman sur un orphelin, dernier membre de la tribu des Agawam tribe (en)
-Superdude: a Novel (1974)
-Recueils de nouvelles
-How Far Back Can You Get? (1974)
-Some of My Best Friends are Fishermen (1976)
-Théâtre
-Ain’t Lookin’ (1981), adaptation théâtrale du roman Chappie and Me
-Autres publications
-The Noronic is Burning (1976), ouvrage sur la prévention des incendies en mer
+Superdude: a Novel (1974)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>John_Craig_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Craig_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>How Far Back Can You Get? (1974)
+Some of My Best Friends are Fishermen (1976)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>John_Craig_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Craig_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Ain’t Lookin’ (1981), adaptation théâtrale du roman Chappie and Me</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>John_Craig_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Craig_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>The Noronic is Burning (1976), ouvrage sur la prévention des incendies en mer
 Canada’s Olympic Chances (1976)
 Archery is Fun! (1976), ouvrage pour la jeunesse
 Baseball is Fun! (1976), ouvrage pour la jeunesse
@@ -585,62 +785,66 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>John_Craig_(%C3%A9crivain)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/John_Craig_(%C3%A9crivain)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>John_Craig_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Craig_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>1970 : Adventures in Rainbow Country (en), série télévisée canadienne, produite par la CBC, de 26 épisodes de 30 minutes, avec Lois Maxwell, Stephen Cottier, Susan Conway (d), Buckley Petawabano, Wally Koster et Albert Millaire. (six scénarios originaux)
 1972 : La Femme ou le Fric (Your Money or Your Wife), téléfilm de Allen Reisner, d’après le roman I You Want to See Your Wife Again... (1971), avec Ted Bessell, Elizabeth Ashley et Jack Cassidy.</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>John_Craig_(%C3%A9crivain)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/John_Craig_(%C3%A9crivain)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>John_Craig_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/John_Craig_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Jacques Baudou et Jean-Jacques Schleret, Le Vrai Visage du Masque, vol. 1, Paris, Futuropolis, 1984, 476 p. (OCLC 311506692), p. 134-135.
 Claude Mesplède et Jean-Jacques Schleret, SN, voyage au bout de la Noire : inventaire de 732 auteurs et de leurs œuvres publiés en séries Noire et Blème : suivi d'une filmographie complète, Paris, Futuropolis, 1982 (OCLC 11972030), p. 93-94.</t>
